--- a/data/CS3/case18_1/case18_1_2025.xlsx
+++ b/data/CS3/case18_1/case18_1_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEE5E0A-9D0A-4790-9A9D-5F1769642E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF9D071-3B03-4535-B680-E158DA0F03EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" firstSheet="28" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9228,8 +9228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9245,16 +9245,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" ref="D1:E1" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -33948,8 +33948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47B4905-28BA-4EFF-8F5E-AB9B4F00D72E}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/case18_1/case18_1_2025.xlsx
+++ b/data/CS3/case18_1/case18_1_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF9D071-3B03-4535-B680-E158DA0F03EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BDDC06-8904-41A1-81F7-5FD530AEE1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-12270" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9228,7 +9228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$5)</f>
-        <v>0.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.1657030035658767E-6</v>
+        <v>1.4438020023772513E-5</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -15389,55 +15389,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.3169242182499768E-3</v>
+        <v>8.7794947883331788E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.608978210375331E-2</v>
+        <v>0.17393188069168874</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>6.8075780055659674E-2</v>
+        <v>0.45383853370439786</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>8.4955225067431625E-2</v>
+        <v>0.56636816711621085</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>9.436003344952909E-2</v>
+        <v>0.62906688966352731</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>9.6109921476410357E-2</v>
+        <v>0.64073280984273573</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>9.4345094518606537E-2</v>
+        <v>0.62896729679071028</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>8.0557345237496553E-2</v>
+        <v>0.53704896824997705</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>5.3234526758366089E-2</v>
+        <v>0.35489684505577396</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.3005820001771506E-2</v>
+        <v>8.6705466678476714E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.0165544710615343E-4</v>
+        <v>6.7770298070768951E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>8.7512080552253813E-6</v>
+        <v>5.8341387034835878E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>6.6960001028618455E-6</v>
+        <v>4.4640000685745636E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -15470,7 +15470,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.1657030035658767E-6</v>
+        <v>1.4438020023772513E-5</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -15490,55 +15490,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.3169242182499768E-3</v>
+        <v>8.7794947883331788E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.608978210375331E-2</v>
+        <v>0.17393188069168874</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>6.8075780055659674E-2</v>
+        <v>0.45383853370439786</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>8.4955225067431625E-2</v>
+        <v>0.56636816711621085</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>9.436003344952909E-2</v>
+        <v>0.62906688966352731</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>9.6109921476410357E-2</v>
+        <v>0.64073280984273573</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>9.4345094518606537E-2</v>
+        <v>0.62896729679071028</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>8.0557345237496553E-2</v>
+        <v>0.53704896824997705</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>5.3234526758366089E-2</v>
+        <v>0.35489684505577396</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.3005820001771506E-2</v>
+        <v>8.6705466678476714E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.0165544710615343E-4</v>
+        <v>6.7770298070768951E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>8.7512080552253813E-6</v>
+        <v>5.8341387034835878E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>6.6960001028618455E-6</v>
+        <v>4.4640000685745636E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.1657030035658767E-6</v>
+        <v>1.4438020023772513E-5</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -15591,55 +15591,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.3169242182499768E-3</v>
+        <v>8.7794947883331788E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.608978210375331E-2</v>
+        <v>0.17393188069168874</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>6.8075780055659674E-2</v>
+        <v>0.45383853370439786</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>8.4955225067431625E-2</v>
+        <v>0.56636816711621085</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>9.436003344952909E-2</v>
+        <v>0.62906688966352731</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>9.6109921476410357E-2</v>
+        <v>0.64073280984273573</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>9.4345094518606537E-2</v>
+        <v>0.62896729679071028</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>8.0557345237496553E-2</v>
+        <v>0.53704896824997705</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>5.3234526758366089E-2</v>
+        <v>0.35489684505577396</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.3005820001771506E-2</v>
+        <v>8.6705466678476714E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.0165544710615343E-4</v>
+        <v>6.7770298070768951E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>8.7512080552253813E-6</v>
+        <v>5.8341387034835878E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>6.6960001028618455E-6</v>
+        <v>4.4640000685745636E-5</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.1657030035658767E-6</v>
+        <v>1.4438020023772513E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -15692,55 +15692,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.3169242182499768E-3</v>
+        <v>8.7794947883331788E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.608978210375331E-2</v>
+        <v>0.17393188069168874</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>6.8075780055659674E-2</v>
+        <v>0.45383853370439786</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>8.4955225067431625E-2</v>
+        <v>0.56636816711621085</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>9.436003344952909E-2</v>
+        <v>0.62906688966352731</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>9.6109921476410357E-2</v>
+        <v>0.64073280984273573</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>9.4345094518606537E-2</v>
+        <v>0.62896729679071028</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>8.0557345237496553E-2</v>
+        <v>0.53704896824997705</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>5.3234526758366089E-2</v>
+        <v>0.35489684505577396</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.3005820001771506E-2</v>
+        <v>8.6705466678476714E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.0165544710615343E-4</v>
+        <v>6.7770298070768951E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>8.7512080552253813E-6</v>
+        <v>5.8341387034835878E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>6.6960001028618455E-6</v>
+        <v>4.4640000685745636E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
-        <v>2.2320178527018375E-6</v>
+        <v>1.4880119018012251E-5</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
@@ -15963,55 +15963,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>1.3033899702998993E-3</v>
+        <v>8.6892664686659959E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>2.7102065649378938E-2</v>
+        <v>0.18068043766252626</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>7.1830775759958165E-2</v>
+        <v>0.47887183839972108</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>9.0336168614222348E-2</v>
+        <v>0.60224112409481567</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>9.339027978292809E-2</v>
+        <v>0.62260186521952066</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.10219738768393985</v>
+        <v>0.68131591789293233</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>9.9549080787281682E-2</v>
+        <v>0.6636605385818779</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>8.3682970232711429E-2</v>
+        <v>0.55788646821807619</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.3558293281737446E-2</v>
+        <v>0.3570552885449163</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.3404064354707639E-2</v>
+        <v>8.9360429031384261E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.0476818492273934E-4</v>
+        <v>6.9845456615159559E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>8.8760126853799031E-6</v>
+        <v>5.9173417902532685E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
-        <v>6.6271842025921175E-6</v>
+        <v>4.4181228017280786E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
-        <v>2.2320178527018375E-6</v>
+        <v>1.4880119018012251E-5</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
@@ -16064,55 +16064,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>1.3033899702998993E-3</v>
+        <v>8.6892664686659959E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>2.7102065649378938E-2</v>
+        <v>0.18068043766252626</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>7.1830775759958165E-2</v>
+        <v>0.47887183839972108</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>9.0336168614222348E-2</v>
+        <v>0.60224112409481567</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>9.339027978292809E-2</v>
+        <v>0.62260186521952066</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.10219738768393985</v>
+        <v>0.68131591789293233</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>9.9549080787281682E-2</v>
+        <v>0.6636605385818779</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>8.3682970232711429E-2</v>
+        <v>0.55788646821807619</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.3558293281737446E-2</v>
+        <v>0.3570552885449163</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.3404064354707639E-2</v>
+        <v>8.9360429031384261E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.0476818492273934E-4</v>
+        <v>6.9845456615159559E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>8.8760126853799031E-6</v>
+        <v>5.9173417902532685E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
-        <v>6.6271842025921175E-6</v>
+        <v>4.4181228017280786E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
-        <v>2.2320178527018375E-6</v>
+        <v>1.4880119018012251E-5</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
@@ -16165,55 +16165,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>1.3033899702998993E-3</v>
+        <v>8.6892664686659959E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>2.7102065649378938E-2</v>
+        <v>0.18068043766252626</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>7.1830775759958165E-2</v>
+        <v>0.47887183839972108</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>9.0336168614222348E-2</v>
+        <v>0.60224112409481567</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>9.339027978292809E-2</v>
+        <v>0.62260186521952066</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.10219738768393985</v>
+        <v>0.68131591789293233</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>9.9549080787281682E-2</v>
+        <v>0.6636605385818779</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>8.3682970232711429E-2</v>
+        <v>0.55788646821807619</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.3558293281737446E-2</v>
+        <v>0.3570552885449163</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.3404064354707639E-2</v>
+        <v>8.9360429031384261E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.0476818492273934E-4</v>
+        <v>6.9845456615159559E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>8.8760126853799031E-6</v>
+        <v>5.9173417902532685E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
-        <v>6.6271842025921175E-6</v>
+        <v>4.4181228017280786E-5</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
-        <v>2.2320178527018375E-6</v>
+        <v>1.4880119018012251E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
@@ -16266,55 +16266,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>1.3033899702998993E-3</v>
+        <v>8.6892664686659959E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>2.7102065649378938E-2</v>
+        <v>0.18068043766252626</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>7.1830775759958165E-2</v>
+        <v>0.47887183839972108</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>9.0336168614222348E-2</v>
+        <v>0.60224112409481567</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>9.339027978292809E-2</v>
+        <v>0.62260186521952066</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.10219738768393985</v>
+        <v>0.68131591789293233</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>9.9549080787281682E-2</v>
+        <v>0.6636605385818779</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>8.3682970232711429E-2</v>
+        <v>0.55788646821807619</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.3558293281737446E-2</v>
+        <v>0.3570552885449163</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.3404064354707639E-2</v>
+        <v>8.9360429031384261E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.0476818492273934E-4</v>
+        <v>6.9845456615159559E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>8.8760126853799031E-6</v>
+        <v>5.9173417902532685E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
-        <v>6.6271842025921175E-6</v>
+        <v>4.4181228017280786E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
-        <v>2.1486502240102403E-6</v>
+        <v>1.4324334826734935E-5</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
@@ -16537,55 +16537,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>1.2547073260491906E-3</v>
+        <v>8.3647155069946043E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.6089782103753307E-2</v>
+        <v>0.17393188069168872</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>6.9147839584095261E-2</v>
+        <v>0.46098559722730176</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>8.6962041407607188E-2</v>
+        <v>0.57974694271738125</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>8.9902079113330854E-2</v>
+        <v>0.59934719408887238</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>9.8380234582152323E-2</v>
+        <v>0.65586823054768217</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>9.5830844038584592E-2</v>
+        <v>0.63887229359056397</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.0557345237496553E-2</v>
+        <v>0.53704896824997705</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>5.1557848750228577E-2</v>
+        <v>0.34371899166819053</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.2903411970261494E-2</v>
+        <v>8.6022746468409961E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0085501051476639E-4</v>
+        <v>6.723667367651093E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
-        <v>8.5444866051019477E-6</v>
+        <v>5.6963244034012985E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
-        <v>6.3796536413093169E-6</v>
+        <v>4.2531024275395445E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
-        <v>2.1486502240102403E-6</v>
+        <v>1.4324334826734935E-5</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
@@ -16638,55 +16638,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>1.2547073260491906E-3</v>
+        <v>8.3647155069946043E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.6089782103753307E-2</v>
+        <v>0.17393188069168872</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>6.9147839584095261E-2</v>
+        <v>0.46098559722730176</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>8.6962041407607188E-2</v>
+        <v>0.57974694271738125</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>8.9902079113330854E-2</v>
+        <v>0.59934719408887238</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>9.8380234582152323E-2</v>
+        <v>0.65586823054768217</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>9.5830844038584592E-2</v>
+        <v>0.63887229359056397</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.0557345237496553E-2</v>
+        <v>0.53704896824997705</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>5.1557848750228577E-2</v>
+        <v>0.34371899166819053</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.2903411970261494E-2</v>
+        <v>8.6022746468409961E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0085501051476639E-4</v>
+        <v>6.723667367651093E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
-        <v>8.5444866051019477E-6</v>
+        <v>5.6963244034012985E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
-        <v>6.3796536413093169E-6</v>
+        <v>4.2531024275395445E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
-        <v>2.1486502240102403E-6</v>
+        <v>1.4324334826734935E-5</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
@@ -16739,55 +16739,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>1.2547073260491906E-3</v>
+        <v>8.3647155069946043E-3</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.6089782103753307E-2</v>
+        <v>0.17393188069168872</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>6.9147839584095261E-2</v>
+        <v>0.46098559722730176</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>8.6962041407607188E-2</v>
+        <v>0.57974694271738125</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>8.9902079113330854E-2</v>
+        <v>0.59934719408887238</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>9.8380234582152323E-2</v>
+        <v>0.65586823054768217</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>9.5830844038584592E-2</v>
+        <v>0.63887229359056397</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.0557345237496553E-2</v>
+        <v>0.53704896824997705</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>5.1557848750228577E-2</v>
+        <v>0.34371899166819053</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.2903411970261494E-2</v>
+        <v>8.6022746468409961E-2</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0085501051476639E-4</v>
+        <v>6.723667367651093E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
-        <v>8.5444866051019477E-6</v>
+        <v>5.6963244034012985E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
-        <v>6.3796536413093169E-6</v>
+        <v>4.2531024275395445E-5</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
-        <v>2.1486502240102403E-6</v>
+        <v>1.4324334826734935E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
@@ -16840,55 +16840,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>1.2547073260491906E-3</v>
+        <v>8.3647155069946043E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.6089782103753307E-2</v>
+        <v>0.17393188069168872</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>6.9147839584095261E-2</v>
+        <v>0.46098559722730176</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>8.6962041407607188E-2</v>
+        <v>0.57974694271738125</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>8.9902079113330854E-2</v>
+        <v>0.59934719408887238</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>9.8380234582152323E-2</v>
+        <v>0.65586823054768217</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>9.5830844038584592E-2</v>
+        <v>0.63887229359056397</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.0557345237496553E-2</v>
+        <v>0.53704896824997705</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>5.1557848750228577E-2</v>
+        <v>0.34371899166819053</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.2903411970261494E-2</v>
+        <v>8.6022746468409961E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0085501051476639E-4</v>
+        <v>6.723667367651093E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
-        <v>8.5444866051019477E-6</v>
+        <v>5.6963244034012985E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
-        <v>6.3796536413093169E-6</v>
+        <v>4.2531024275395445E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
@@ -18351,7 +18351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -18379,7 +18379,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -18390,7 +18390,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="4">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -18401,7 +18401,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="4">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -18412,7 +18412,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="4">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -30882,7 +30882,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.9636554813934348E-6</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -30902,55 +30902,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.7306307945506077E-3</v>
+        <v>1.1537538630337385E-2</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>3.5985906350004565E-2</v>
+        <v>0.23990604233336377</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>9.5376330460821043E-2</v>
+        <v>0.63584220307214034</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.1199476433208375</v>
+        <v>0.79965095547225007</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.12400286774252532</v>
+        <v>0.82668578495016887</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.13569687528572735</v>
+        <v>0.90464583523818232</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.13218047453597875</v>
+        <v>0.88120316357319173</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.11111357963792627</v>
+        <v>0.7407571975861752</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>7.1114274138246308E-2</v>
+        <v>0.47409516092164211</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.7797809614153785E-2</v>
+        <v>0.11865206409435858</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.3911035933071225E-4</v>
+        <v>9.274023955380818E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.1785498765657859E-5</v>
+        <v>7.8569991771052395E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>8.79952226387492E-6</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -30983,7 +30983,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.9636554813934348E-6</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -31003,55 +31003,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.7306307945506077E-3</v>
+        <v>1.1537538630337385E-2</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>3.5985906350004565E-2</v>
+        <v>0.23990604233336377</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>9.5376330460821043E-2</v>
+        <v>0.63584220307214034</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.1199476433208375</v>
+        <v>0.79965095547225007</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.12400286774252532</v>
+        <v>0.82668578495016887</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.13569687528572735</v>
+        <v>0.90464583523818232</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.13218047453597875</v>
+        <v>0.88120316357319173</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.11111357963792627</v>
+        <v>0.7407571975861752</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>7.1114274138246308E-2</v>
+        <v>0.47409516092164211</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.7797809614153785E-2</v>
+        <v>0.11865206409435858</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.3911035933071225E-4</v>
+        <v>9.274023955380818E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.1785498765657859E-5</v>
+        <v>7.8569991771052395E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>8.79952226387492E-6</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -31084,7 +31084,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.9636554813934348E-6</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -31104,55 +31104,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.7306307945506077E-3</v>
+        <v>1.1537538630337385E-2</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>3.5985906350004565E-2</v>
+        <v>0.23990604233336377</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>9.5376330460821043E-2</v>
+        <v>0.63584220307214034</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.1199476433208375</v>
+        <v>0.79965095547225007</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.12400286774252532</v>
+        <v>0.82668578495016887</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.13569687528572735</v>
+        <v>0.90464583523818232</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.13218047453597875</v>
+        <v>0.88120316357319173</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.11111357963792627</v>
+        <v>0.7407571975861752</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>7.1114274138246308E-2</v>
+        <v>0.47409516092164211</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.7797809614153785E-2</v>
+        <v>0.11865206409435858</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.3911035933071225E-4</v>
+        <v>9.274023955380818E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.1785498765657859E-5</v>
+        <v>7.8569991771052395E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>8.79952226387492E-6</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -31185,7 +31185,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.9636554813934348E-6</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -31205,55 +31205,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.7306307945506077E-3</v>
+        <v>1.1537538630337385E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>3.5985906350004565E-2</v>
+        <v>0.23990604233336377</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>9.5376330460821043E-2</v>
+        <v>0.63584220307214034</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.1199476433208375</v>
+        <v>0.79965095547225007</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.12400286774252532</v>
+        <v>0.82668578495016887</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.13569687528572735</v>
+        <v>0.90464583523818232</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.13218047453597875</v>
+        <v>0.88120316357319173</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.11111357963792627</v>
+        <v>0.7407571975861752</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>7.1114274138246308E-2</v>
+        <v>0.47409516092164211</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.7797809614153785E-2</v>
+        <v>0.11865206409435858</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.3911035933071225E-4</v>
+        <v>9.274023955380818E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.1785498765657859E-5</v>
+        <v>7.8569991771052395E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>8.79952226387492E-6</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -31540,7 +31540,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
-        <v>2.9871765566425889E-6</v>
+        <v>1.991451037761726E-5</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
@@ -31560,55 +31560,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.816447197586175E-3</v>
+        <v>1.2109647983907833E-2</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>3.5985906350004565E-2</v>
+        <v>0.23990604233336379</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>9.3897627662978864E-2</v>
+        <v>0.62598418441985915</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.11717962078266431</v>
+        <v>0.78119747188442878</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.13015177027521255</v>
+        <v>0.86767846850141694</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.1325654089329798</v>
+        <v>0.883769392886532</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.13013116485325041</v>
+        <v>0.86754109902166943</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.1111135796379263</v>
+        <v>0.74075719758617531</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.3426933459815297E-2</v>
+        <v>0.489512889732102</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.7939062071408975E-2</v>
+        <v>0.11959374714272651</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4021440980159093E-4</v>
+        <v>9.3476273201060622E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.2070631800310872E-5</v>
+        <v>8.0470878668739148E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
-        <v>9.2358622108439242E-6</v>
+        <v>6.1572414738959497E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
@@ -31641,7 +31641,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
-        <v>2.9871765566425889E-6</v>
+        <v>1.991451037761726E-5</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
@@ -31661,55 +31661,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.816447197586175E-3</v>
+        <v>1.2109647983907833E-2</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>3.5985906350004565E-2</v>
+        <v>0.23990604233336379</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>9.3897627662978864E-2</v>
+        <v>0.62598418441985915</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.11717962078266431</v>
+        <v>0.78119747188442878</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.13015177027521255</v>
+        <v>0.86767846850141694</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.1325654089329798</v>
+        <v>0.883769392886532</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.13013116485325041</v>
+        <v>0.86754109902166943</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.1111135796379263</v>
+        <v>0.74075719758617531</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.3426933459815297E-2</v>
+        <v>0.489512889732102</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.7939062071408975E-2</v>
+        <v>0.11959374714272651</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4021440980159093E-4</v>
+        <v>9.3476273201060622E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.2070631800310872E-5</v>
+        <v>8.0470878668739148E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
-        <v>9.2358622108439242E-6</v>
+        <v>6.1572414738959497E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
@@ -31742,7 +31742,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
-        <v>2.9871765566425889E-6</v>
+        <v>1.991451037761726E-5</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
@@ -31762,55 +31762,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.816447197586175E-3</v>
+        <v>1.2109647983907833E-2</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>3.5985906350004565E-2</v>
+        <v>0.23990604233336379</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>9.3897627662978864E-2</v>
+        <v>0.62598418441985915</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.11717962078266431</v>
+        <v>0.78119747188442878</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.13015177027521255</v>
+        <v>0.86767846850141694</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.1325654089329798</v>
+        <v>0.883769392886532</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.13013116485325041</v>
+        <v>0.86754109902166943</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.1111135796379263</v>
+        <v>0.74075719758617531</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.3426933459815297E-2</v>
+        <v>0.489512889732102</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.7939062071408975E-2</v>
+        <v>0.11959374714272651</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4021440980159093E-4</v>
+        <v>9.3476273201060622E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.2070631800310872E-5</v>
+        <v>8.0470878668739148E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
-        <v>9.2358622108439242E-6</v>
+        <v>6.1572414738959497E-5</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
@@ -31843,7 +31843,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
-        <v>2.9871765566425889E-6</v>
+        <v>1.991451037761726E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
@@ -31863,55 +31863,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.816447197586175E-3</v>
+        <v>1.2109647983907833E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>3.5985906350004565E-2</v>
+        <v>0.23990604233336379</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>9.3897627662978864E-2</v>
+        <v>0.62598418441985915</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.11717962078266431</v>
+        <v>0.78119747188442878</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.13015177027521255</v>
+        <v>0.86767846850141694</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.1325654089329798</v>
+        <v>0.883769392886532</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.13013116485325041</v>
+        <v>0.86754109902166943</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.1111135796379263</v>
+        <v>0.74075719758617531</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.3426933459815297E-2</v>
+        <v>0.489512889732102</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.7939062071408975E-2</v>
+        <v>0.11959374714272651</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4021440980159093E-4</v>
+        <v>9.3476273201060622E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.2070631800310872E-5</v>
+        <v>8.0470878668739148E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
-        <v>9.2358622108439242E-6</v>
+        <v>6.1572414738959497E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
@@ -32114,7 +32114,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
-        <v>2.9010306185425612E-6</v>
+        <v>1.9340204123617075E-5</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
@@ -32134,55 +32134,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.7292005211666814E-3</v>
+        <v>1.1528003474444543E-2</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>3.5086258691254445E-2</v>
+        <v>0.23390839127502966</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>9.2271054585352452E-2</v>
+        <v>0.61514036390234972</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.11559954125045713</v>
+        <v>0.77066360833638092</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.1239003860336472</v>
+        <v>0.82600257355764806</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.13077786355661972</v>
+        <v>0.87185242371079819</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.12787692420224922</v>
+        <v>0.85251282801499484</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.10833574014697812</v>
+        <v>0.72223826764652088</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>7.0463838704055037E-2</v>
+        <v>0.46975892469370023</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.7421724946711847E-2</v>
+        <v>0.11614483297807898</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.3617082495199779E-4</v>
+        <v>9.0780549967998535E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
-        <v>1.1629863650909755E-5</v>
+        <v>7.7532424339398366E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
-        <v>8.7922499314254361E-6</v>
+        <v>5.8614999542836241E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
@@ -32215,7 +32215,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
-        <v>2.9010306185425612E-6</v>
+        <v>1.9340204123617075E-5</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
@@ -32235,55 +32235,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.7292005211666814E-3</v>
+        <v>1.1528003474444543E-2</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>3.5086258691254445E-2</v>
+        <v>0.23390839127502966</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>9.2271054585352452E-2</v>
+        <v>0.61514036390234972</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.11559954125045713</v>
+        <v>0.77066360833638092</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.1239003860336472</v>
+        <v>0.82600257355764806</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.13077786355661972</v>
+        <v>0.87185242371079819</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.12787692420224922</v>
+        <v>0.85251282801499484</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.10833574014697812</v>
+        <v>0.72223826764652088</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>7.0463838704055037E-2</v>
+        <v>0.46975892469370023</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.7421724946711847E-2</v>
+        <v>0.11614483297807898</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.3617082495199779E-4</v>
+        <v>9.0780549967998535E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
-        <v>1.1629863650909755E-5</v>
+        <v>7.7532424339398366E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
-        <v>8.7922499314254361E-6</v>
+        <v>5.8614999542836241E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
-        <v>2.9010306185425612E-6</v>
+        <v>1.9340204123617075E-5</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
@@ -32336,55 +32336,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.7292005211666814E-3</v>
+        <v>1.1528003474444543E-2</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>3.5086258691254445E-2</v>
+        <v>0.23390839127502966</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>9.2271054585352452E-2</v>
+        <v>0.61514036390234972</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.11559954125045713</v>
+        <v>0.77066360833638092</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.1239003860336472</v>
+        <v>0.82600257355764806</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.13077786355661972</v>
+        <v>0.87185242371079819</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.12787692420224922</v>
+        <v>0.85251282801499484</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.10833574014697812</v>
+        <v>0.72223826764652088</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>7.0463838704055037E-2</v>
+        <v>0.46975892469370023</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.7421724946711847E-2</v>
+        <v>0.11614483297807898</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.3617082495199779E-4</v>
+        <v>9.0780549967998535E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
-        <v>1.1629863650909755E-5</v>
+        <v>7.7532424339398366E-5</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
-        <v>8.7922499314254361E-6</v>
+        <v>5.8614999542836241E-5</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
@@ -32417,7 +32417,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
-        <v>2.9010306185425612E-6</v>
+        <v>1.9340204123617075E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
@@ -32437,55 +32437,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.7292005211666814E-3</v>
+        <v>1.1528003474444543E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>3.5086258691254445E-2</v>
+        <v>0.23390839127502966</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>9.2271054585352452E-2</v>
+        <v>0.61514036390234972</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.11559954125045713</v>
+        <v>0.77066360833638092</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.1239003860336472</v>
+        <v>0.82600257355764806</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.13077786355661972</v>
+        <v>0.87185242371079819</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.12787692420224922</v>
+        <v>0.85251282801499484</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.10833574014697812</v>
+        <v>0.72223826764652088</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>7.0463838704055037E-2</v>
+        <v>0.46975892469370023</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.7421724946711847E-2</v>
+        <v>0.11614483297807898</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.3617082495199779E-4</v>
+        <v>9.0780549967998535E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
-        <v>1.1629863650909755E-5</v>
+        <v>7.7532424339398366E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
-        <v>8.7922499314254361E-6</v>
+        <v>5.8614999542836241E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$5,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>

--- a/data/CS3/case18_1/case18_1_2025.xlsx
+++ b/data/CS3/case18_1/case18_1_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BDDC06-8904-41A1-81F7-5FD530AEE1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD1CC0F-FF54-47B6-A8C4-0D07BA949859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-12270" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9228,8 +9228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18351,7 +18351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case18_1/case18_1_2025.xlsx
+++ b/data/CS3/case18_1/case18_1_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD1CC0F-FF54-47B6-A8C4-0D07BA949859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E8EF5A-430D-4594-A0E6-4366E5799382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9229,7 +9229,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9242,11 +9242,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:E1" si="0">1/3</f>

--- a/data/CS3/case18_1/case18_1_2025.xlsx
+++ b/data/CS3/case18_1/case18_1_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E8EF5A-430D-4594-A0E6-4366E5799382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B39D2-8D3F-44FC-AB06-681420D9C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9229,7 +9229,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9242,13 +9242,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f t="shared" ref="C1:E1" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
